--- a/medicine/Psychotrope/VLB_Berlin/VLB_Berlin.xlsx
+++ b/medicine/Psychotrope/VLB_Berlin/VLB_Berlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le VLB Berlin (Versuch- und Lehranstalt für Brauerei in Berlin) est une association à but non lucratif pour la recherche et l'éducation des technologies de brassage. Le VLB est situé à Berlin-Wedding. Le VLB a été fondé en 1883, puis relocalisé en 1898 à son emplacement actuel sur Seestr. 13[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le VLB Berlin (Versuch- und Lehranstalt für Brauerei in Berlin) est une association à but non lucratif pour la recherche et l'éducation des technologies de brassage. Le VLB est situé à Berlin-Wedding. Le VLB a été fondé en 1883, puis relocalisé en 1898 à son emplacement actuel sur Seestr. 13.
 Entre 1898 et 1981, le VLB a hébergé la Hochschul Brauerei, soit l'université de brassage.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Cours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En collaboration avec l'université technique de Berlin, le VLB propose jusqu'en 2019 le cours de Maître-brasseur certifié, cursus de six mois avec des cours dispensés en anglais ou en russe. Des brasseurs du monde entier ont suivi ces cours[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En collaboration avec l'université technique de Berlin, le VLB propose jusqu'en 2019 le cours de Maître-brasseur certifié, cursus de six mois avec des cours dispensés en anglais ou en russe. Des brasseurs du monde entier ont suivi ces cours.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Les Bibliothèques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les nouveaux locaux du VLB se trouvent deux bibliothèques des sciences du brassage. Les bibliothèques ne sont pas uniquement accessibles aux membres du VLB et du GGB, mais également à tous les étudiants, scientifiques et individus intéressés par les sciences du brassage.  
 Axel-Simon-Bibliothek
 La nouvelle bibliothèque spécialisée du VLB pour la biotechnologie et la fermentation a été nommée en l'honneur de Axel Th. Simon, ancien président du VLB et du GGB. La bibliothèque Axel-Simon contient près de 10 000 livres, 2 000 dissertations et thèses, ainsi que 12 000 volumes de périodiques.
 Schultze-Berndt-Bibliothek
-Tout comme l'ancienne bibliothèque Lorberg de l'Institut de fermentation, la bibliothqie Schultze-Berndt du Gesellschaft für Geschichte des Brauwesens comprend 5 000 livres. La bibliothèque a été nommée en l'honner de Hans Günter Schultze-Berndt (1927–1996), chef de la direction du VLB. Le catalogue de la bibliothèque est accessible en ligne[3].
+Tout comme l'ancienne bibliothèque Lorberg de l'Institut de fermentation, la bibliothqie Schultze-Berndt du Gesellschaft für Geschichte des Brauwesens comprend 5 000 livres. La bibliothèque a été nommée en l'honner de Hans Günter Schultze-Berndt (1927–1996), chef de la direction du VLB. Le catalogue de la bibliothèque est accessible en ligne.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>La Littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Olaf Hendel, Wiebke Nöthlich-Künnemann, Michaela Knör: 125 Jahre Versuchs- und Lehranstalt für Brauerei in Berlin. VLB Berlin, Berlin 2008,  (ISBN 978-3-921690-59-8).
 100 Jahre Versuchs- und Lehranstalt für Brauerei in Berlin (VLB). Redaktion Hans Günter Schultze-Berndt, VLB: Berlin 1983  (ISBN 3-921690-25-0).
